--- a/Public/templates/textbook.xlsx
+++ b/Public/templates/textbook.xlsx
@@ -16,24 +16,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>封面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>简介</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>显示状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cover</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>intro</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,29 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>你还好么</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,7 +94,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>08版</t>
+    <t>09版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示状态(1:上线;2:下线)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -189,49 +162,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="tu.PNG"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685801" y="361951"/>
-          <a:ext cx="333374" cy="158749"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -519,18 +449,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,84 +471,77 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="C3">
+        <v>5.6</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D3">
-        <v>5.6</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Public/templates/textbook.xlsx
+++ b/Public/templates/textbook.xlsx
@@ -94,15 +94,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>09版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不知道</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>显示状态(1:上线;2:下线)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19版</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,7 +452,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
@@ -535,7 +535,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Public/templates/textbook.xlsx
+++ b/Public/templates/textbook.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,15 +94,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不知道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>显示状态(1:上线;2:下线)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>19版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09版</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -471,7 +495,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -514,7 +538,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
@@ -535,7 +559,33 @@
         <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>5.5</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
